--- a/data/BlocketBilData.xlsx
+++ b/data/BlocketBilData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="raw_data" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="79">
   <si>
     <t>Bränsle</t>
   </si>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>45 000 - 49 999</t>
-  </si>
-  <si>
-    <t>20 000 - 20 4999</t>
   </si>
   <si>
     <t xml:space="preserve">27 000 - 27 499 </t>
@@ -10713,7 +10710,7 @@
         <v>10</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="D507" s="4">
         <v>2010.0</v>
@@ -10753,7 +10750,7 @@
         <v>10</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D509" s="4">
         <v>2010.0</v>
@@ -10853,7 +10850,7 @@
         <v>7</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D514" s="4">
         <v>2011.0</v>
@@ -11473,7 +11470,7 @@
         <v>7</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D545" s="4">
         <v>2011.0</v>
@@ -11513,7 +11510,7 @@
         <v>7</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D547" s="4">
         <v>2011.0</v>
@@ -12533,7 +12530,7 @@
         <v>7</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D598" s="4">
         <v>2011.0</v>
@@ -12553,7 +12550,7 @@
         <v>10</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D599" s="4">
         <v>2010.0</v>
@@ -12633,7 +12630,7 @@
         <v>7</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D603" s="4">
         <v>2011.0</v>
@@ -12653,7 +12650,7 @@
         <v>7</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D604" s="4">
         <v>2011.0</v>
@@ -12833,7 +12830,7 @@
         <v>10</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D613" s="4">
         <v>2009.0</v>
@@ -13513,7 +13510,7 @@
         <v>10</v>
       </c>
       <c r="C647" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D647" s="4">
         <v>2009.0</v>
@@ -13633,7 +13630,7 @@
         <v>7</v>
       </c>
       <c r="C653" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D653" s="4">
         <v>2008.0</v>
@@ -14453,7 +14450,7 @@
         <v>10</v>
       </c>
       <c r="C694" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D694" s="4">
         <v>2008.0</v>
@@ -14573,7 +14570,7 @@
         <v>10</v>
       </c>
       <c r="C700" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D700" s="4">
         <v>2009.0</v>
@@ -14593,7 +14590,7 @@
         <v>10</v>
       </c>
       <c r="C701" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D701" s="4">
         <v>2009.0</v>
